--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.171614</v>
+        <v>0.06056433333333333</v>
       </c>
       <c r="H2">
-        <v>0.514842</v>
+        <v>0.181693</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.29099299999999</v>
+        <v>91.60947133333333</v>
       </c>
       <c r="N2">
-        <v>132.872979</v>
+        <v>274.828414</v>
       </c>
       <c r="O2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="P2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
       <c r="Q2">
-        <v>7.600954472702</v>
+        <v>5.548266558322444</v>
       </c>
       <c r="R2">
-        <v>68.408590254318</v>
+        <v>49.934399024902</v>
       </c>
       <c r="S2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577153</v>
       </c>
       <c r="T2">
-        <v>0.5386410749126281</v>
+        <v>0.7121576185577152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.171614</v>
+        <v>0.06056433333333333</v>
       </c>
       <c r="H3">
-        <v>0.514842</v>
+        <v>0.181693</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.83185066666666</v>
+        <v>22.83185066666667</v>
       </c>
       <c r="N3">
-        <v>68.49555199999999</v>
+        <v>68.495552</v>
       </c>
       <c r="O3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="P3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="Q3">
-        <v>3.918265220309333</v>
+        <v>1.382795814392889</v>
       </c>
       <c r="R3">
-        <v>35.264386982784</v>
+        <v>12.445162329536</v>
       </c>
       <c r="S3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
       <c r="T3">
-        <v>0.2776675742026813</v>
+        <v>0.1774912152792038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.171614</v>
+        <v>0.06056433333333333</v>
       </c>
       <c r="H4">
-        <v>0.514842</v>
+        <v>0.181693</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.361398</v>
+        <v>7.077809999999999</v>
       </c>
       <c r="N4">
-        <v>19.084194</v>
+        <v>21.23343</v>
       </c>
       <c r="O4">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="P4">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
       <c r="Q4">
-        <v>1.091704956372</v>
+        <v>0.4286628441099999</v>
       </c>
       <c r="R4">
-        <v>9.825344607348001</v>
+        <v>3.85796559699</v>
       </c>
       <c r="S4">
-        <v>0.0773635907568621</v>
+        <v>0.05502178149094856</v>
       </c>
       <c r="T4">
-        <v>0.07736359075686208</v>
+        <v>0.05502178149094855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.171614</v>
+        <v>0.06056433333333333</v>
       </c>
       <c r="H5">
-        <v>0.514842</v>
+        <v>0.181693</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.743043</v>
+        <v>7.117379</v>
       </c>
       <c r="N5">
-        <v>26.229129</v>
+        <v>21.352137</v>
       </c>
       <c r="O5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="P5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
       <c r="Q5">
-        <v>1.500428581402</v>
+        <v>0.4310593142156666</v>
       </c>
       <c r="R5">
-        <v>13.503857232618</v>
+        <v>3.879533827941</v>
       </c>
       <c r="S5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213248</v>
       </c>
       <c r="T5">
-        <v>0.1063277601278285</v>
+        <v>0.05532938467213247</v>
       </c>
     </row>
   </sheetData>
